--- a/TEST MONITORING_SQ02_7_HEAR AND PROOF IT.xlsx
+++ b/TEST MONITORING_SQ02_7_HEAR AND PROOF IT.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="181">
   <si>
     <t xml:space="preserve">TEST SCENARIO </t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Validasi fitur "Upload Lagu"</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>TS_login_001</t>
+  </si>
+  <si>
+    <t>Validasi fitur "Login"</t>
   </si>
   <si>
     <t>TEST CASE</t>
@@ -435,6 +444,107 @@
     <t>Unique Search Keyword = "keyword 1 keyword 1, keyword 2, keyword 3 keyword 3"</t>
   </si>
   <si>
+    <t>TC_login_01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validasi </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>existing user</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> berhasil</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Klik button "LOGIN"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistem </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>redirect</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> ke </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>home page</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Enter MSISDN</t>
+  </si>
+  <si>
+    <t>MSISDN = 081318924085</t>
+  </si>
+  <si>
+    <t>3. Enter Password</t>
+  </si>
+  <si>
+    <t>4. Klik button "LOGIN" [untuk submit]</t>
+  </si>
+  <si>
+    <t>Password = sq0213</t>
+  </si>
+  <si>
+    <t>TC_login_02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validasi </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>existing user</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> gagal</t>
+    </r>
+  </si>
+  <si>
+    <t>Muncul notifikasi masukkan Username dan password dengan benar</t>
+  </si>
+  <si>
+    <t>Password = 12345</t>
+  </si>
+  <si>
+    <t>TC_login_03</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validasi </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t xml:space="preserve">new user </t>
+    </r>
+    <r>
+      <t>login</t>
+    </r>
+  </si>
+  <si>
+    <t>MSISDN = 081234567891</t>
+  </si>
+  <si>
+    <t>Password = password</t>
+  </si>
+  <si>
     <t>Test Monitoring</t>
   </si>
   <si>
@@ -588,6 +698,65 @@
   <si>
     <t>Mengisi field "Unique Search Keyword" dengan keyword berjumlah kurang dari lima</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validasi </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>existing user</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> berhasil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistem </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>redirect</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> ke </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>homepage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validasi </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>existing user</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> gagal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validasi </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>new user</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -596,7 +765,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -623,6 +792,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
       <sz val="18.0"/>
@@ -640,7 +814,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -656,6 +829,7 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -734,7 +908,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border/>
     <border>
       <left style="thin">
@@ -888,6 +1062,39 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -927,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -960,192 +1167,227 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="18" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1157,42 +1399,42 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1201,130 +1443,181 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="11" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="11" fillId="2" fontId="18" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="11" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="18" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="18" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="18" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="18" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="2" fontId="18" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="18" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="2" fontId="18" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1802,23 +2095,33 @@
     </row>
     <row r="19" ht="24.0" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" ht="24.0" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" ht="24.0" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" ht="24.0" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" ht="24.0" customHeight="1">
       <c r="A23" s="2"/>
@@ -6830,1334 +7133,1486 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
     <row r="2">
-      <c r="B2" s="12" t="s">
-        <v>12</v>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="42"/>
+      <c r="B15" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="42"/>
+      <c r="B17" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="42"/>
+      <c r="B19" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="42"/>
+      <c r="B21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="42"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="42"/>
+      <c r="B23" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="42"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="42"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="42"/>
+      <c r="B27" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="42"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="42"/>
+      <c r="B29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="42"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="42"/>
+      <c r="B31" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="49"/>
+      <c r="F33" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="50"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="42"/>
+      <c r="B36" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="42"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="42"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="42"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="61"/>
+      <c r="F39" s="42"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="42"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="42"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="42"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="42"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="42"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="42"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="42"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="64"/>
+      <c r="F43" s="43"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="42"/>
+      <c r="B44" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="42"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="42"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="42"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="61"/>
+      <c r="F46" s="42"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="42"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="42"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="42"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="42"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="42"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="F49" s="42"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="42"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="65"/>
+      <c r="F50" s="42"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="42"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="64"/>
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="42"/>
+      <c r="B52" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="68"/>
+      <c r="F52" s="47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="42"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="68"/>
+      <c r="F53" s="69"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="42"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="68"/>
+      <c r="F54" s="69"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="42"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="69"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="42"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="61"/>
+      <c r="F56" s="69"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="42"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="69"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="42"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="68"/>
+      <c r="F58" s="69"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="42"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="69"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="42"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="70"/>
+      <c r="F60" s="69"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="42"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="69"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="42"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="70"/>
+      <c r="F62" s="69"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="42"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="69"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="42"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="70"/>
+      <c r="F64" s="69"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="42"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="69"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="42"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="71"/>
+      <c r="F66" s="69"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="42"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" s="69"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="42"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="68"/>
+      <c r="F68" s="69"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="42"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="69"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="42"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="70"/>
+      <c r="F70" s="69"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="42"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F71" s="69"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="42"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" s="70"/>
+      <c r="F72" s="69"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="42"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="72"/>
+      <c r="F73" s="69"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="42"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="73"/>
+      <c r="F74" s="50"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="42"/>
+      <c r="B75" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="75"/>
+      <c r="F75" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="42"/>
+      <c r="B76" s="69"/>
+      <c r="D76" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="75"/>
+      <c r="F76" s="42"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="42"/>
+      <c r="B77" s="69"/>
+      <c r="D77" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="75"/>
+      <c r="F77" s="42"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="42"/>
+      <c r="B78" s="69"/>
+      <c r="D78" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="42"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="42"/>
+      <c r="B79" s="69"/>
+      <c r="D79" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79" s="61"/>
+      <c r="F79" s="42"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="42"/>
+      <c r="B80" s="69"/>
+      <c r="D80" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="42"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="42"/>
+      <c r="B81" s="69"/>
+      <c r="D81" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="75"/>
+      <c r="F81" s="42"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="42"/>
+      <c r="B82" s="69"/>
+      <c r="D82" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" s="42"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="42"/>
+      <c r="B83" s="69"/>
+      <c r="D83" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="75"/>
+      <c r="F83" s="42"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="42"/>
+      <c r="B84" s="69"/>
+      <c r="D84" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" s="42"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="42"/>
+      <c r="B85" s="69"/>
+      <c r="D85" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="75"/>
+      <c r="F85" s="42"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="42"/>
+      <c r="B86" s="69"/>
+      <c r="D86" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" s="42"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="42"/>
+      <c r="B87" s="69"/>
+      <c r="D87" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" s="75"/>
+      <c r="F87" s="42"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="42"/>
+      <c r="B88" s="69"/>
+      <c r="D88" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88" s="42"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="42"/>
+      <c r="B89" s="69"/>
+      <c r="D89" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E89" s="75"/>
+      <c r="F89" s="42"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="42"/>
+      <c r="B90" s="69"/>
+      <c r="D90" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" s="42"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="42"/>
+      <c r="B91" s="69"/>
+      <c r="D91" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" s="77"/>
+      <c r="F91" s="42"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="42"/>
+      <c r="B92" s="69"/>
+      <c r="D92" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="42"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="42"/>
+      <c r="B93" s="69"/>
+      <c r="D93" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="75"/>
+      <c r="F93" s="42"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="42"/>
+      <c r="B94" s="69"/>
+      <c r="D94" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F94" s="42"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="42"/>
+      <c r="B95" s="69"/>
+      <c r="D95" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E95" s="75"/>
+      <c r="F95" s="42"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="42"/>
+      <c r="B96" s="69"/>
+      <c r="D96" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" s="78"/>
+      <c r="F96" s="42"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="42"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" s="80"/>
+      <c r="F97" s="43"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="42"/>
+      <c r="B98" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E98" s="70"/>
+      <c r="F98" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="42"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E99" s="70"/>
+      <c r="F99" s="69"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="42"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="70"/>
+      <c r="F100" s="69"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="42"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E101" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" s="69"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="42"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102" s="61"/>
+      <c r="F102" s="69"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="42"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F103" s="69"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="42"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E104" s="70"/>
+      <c r="F104" s="69"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="42"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F105" s="69"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="42"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E106" s="70"/>
+      <c r="F106" s="69"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="42"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E107" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F107" s="69"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="42"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E108" s="70"/>
+      <c r="F108" s="69"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="42"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E109" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F109" s="69"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="42"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110" s="70"/>
+      <c r="F110" s="69"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="42"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E111" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="69"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="42"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E112" s="71"/>
+      <c r="F112" s="69"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="42"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E113" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F113" s="69"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="42"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" s="70"/>
+      <c r="F114" s="69"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="42"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F115" s="69"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="42"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E116" s="70"/>
+      <c r="F116" s="69"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="42"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E117" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F117" s="69"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="42"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" s="70"/>
+      <c r="F118" s="69"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="42"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E119" s="70"/>
+      <c r="F119" s="69"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="43"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="E120" s="83"/>
+      <c r="F120" s="50"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="40"/>
-      <c r="B15" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="40"/>
-      <c r="B17" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="40"/>
-      <c r="B19" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="40"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="40"/>
-      <c r="B23" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="40"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="40"/>
-      <c r="B27" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="40"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="40"/>
-      <c r="B29" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="40"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="40"/>
-      <c r="B31" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="41"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="48"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="40"/>
-      <c r="B36" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="40"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="40"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="40"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="40"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="40"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="40"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="40"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="40"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="40"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="40"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="40"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="40"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="40"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="41"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="40"/>
-      <c r="B44" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="40"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="40"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="40"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="59"/>
-      <c r="F46" s="40"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="40"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="40"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="40"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="40"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="40"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="40"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="40"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="40"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="40"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="62"/>
-      <c r="F51" s="41"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="40"/>
-      <c r="B52" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="40"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="67"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="40"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="67"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="40"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" s="67"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="40"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="59"/>
-      <c r="F56" s="67"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="40"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" s="67"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="40"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="66"/>
-      <c r="F58" s="67"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="40"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="67"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="40"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="68"/>
-      <c r="F60" s="67"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="40"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="67"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="40"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="68"/>
-      <c r="F62" s="67"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="40"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="67"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="40"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="68"/>
-      <c r="F64" s="67"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="40"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" s="67"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="40"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E66" s="69"/>
-      <c r="F66" s="67"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="40"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F67" s="67"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="40"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" s="66"/>
-      <c r="F68" s="67"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="40"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F69" s="67"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="40"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="68"/>
-      <c r="F70" s="67"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="40"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="F71" s="67"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="40"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="68"/>
-      <c r="F72" s="67"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="40"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="70"/>
-      <c r="F73" s="67"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="40"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E74" s="71"/>
-      <c r="F74" s="48"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="40"/>
-      <c r="B75" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="73"/>
-      <c r="F75" s="39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="40"/>
-      <c r="B76" s="67"/>
-      <c r="D76" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="E76" s="73"/>
-      <c r="F76" s="40"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="40"/>
-      <c r="B77" s="67"/>
-      <c r="D77" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" s="73"/>
-      <c r="F77" s="40"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="40"/>
-      <c r="B78" s="67"/>
-      <c r="D78" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F78" s="40"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="40"/>
-      <c r="B79" s="67"/>
-      <c r="D79" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79" s="59"/>
-      <c r="F79" s="40"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="40"/>
-      <c r="B80" s="67"/>
-      <c r="D80" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="F80" s="40"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="40"/>
-      <c r="B81" s="67"/>
-      <c r="D81" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="E81" s="73"/>
-      <c r="F81" s="40"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="40"/>
-      <c r="B82" s="67"/>
-      <c r="D82" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="E82" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="F82" s="40"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="40"/>
-      <c r="B83" s="67"/>
-      <c r="D83" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="73"/>
-      <c r="F83" s="40"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="40"/>
-      <c r="B84" s="67"/>
-      <c r="D84" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="E84" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F84" s="40"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="40"/>
-      <c r="B85" s="67"/>
-      <c r="D85" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="73"/>
-      <c r="F85" s="40"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="40"/>
-      <c r="B86" s="67"/>
-      <c r="D86" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="E86" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F86" s="40"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="40"/>
-      <c r="B87" s="67"/>
-      <c r="D87" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="E87" s="73"/>
-      <c r="F87" s="40"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="40"/>
-      <c r="B88" s="67"/>
-      <c r="D88" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="E88" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F88" s="40"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="40"/>
-      <c r="B89" s="67"/>
-      <c r="D89" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" s="73"/>
-      <c r="F89" s="40"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="40"/>
-      <c r="B90" s="67"/>
-      <c r="D90" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="F90" s="40"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="40"/>
-      <c r="B91" s="67"/>
-      <c r="D91" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="E91" s="75"/>
-      <c r="F91" s="40"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="40"/>
-      <c r="B92" s="67"/>
-      <c r="D92" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="E92" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="F92" s="40"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="40"/>
-      <c r="B93" s="67"/>
-      <c r="D93" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="E93" s="73"/>
-      <c r="F93" s="40"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="40"/>
-      <c r="B94" s="67"/>
-      <c r="D94" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="E94" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="F94" s="40"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="40"/>
-      <c r="B95" s="67"/>
-      <c r="D95" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="E95" s="73"/>
-      <c r="F95" s="40"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="40"/>
-      <c r="B96" s="67"/>
-      <c r="D96" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="E96" s="76"/>
-      <c r="F96" s="40"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="40"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="E97" s="78"/>
-      <c r="F97" s="41"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="40"/>
-      <c r="B98" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E98" s="68"/>
-      <c r="F98" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="40"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="E99" s="68"/>
-      <c r="F99" s="67"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="40"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E100" s="68"/>
-      <c r="F100" s="67"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="40"/>
-      <c r="B101" s="67"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E101" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F101" s="67"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="40"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E102" s="59"/>
-      <c r="F102" s="67"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="40"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E103" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="F103" s="67"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="40"/>
-      <c r="B104" s="67"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E104" s="68"/>
-      <c r="F104" s="67"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="40"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E105" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="F105" s="67"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="40"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="68"/>
-      <c r="F106" s="67"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="40"/>
-      <c r="B107" s="67"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E107" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F107" s="67"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="40"/>
-      <c r="B108" s="67"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E108" s="68"/>
-      <c r="F108" s="67"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="40"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E109" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F109" s="67"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="40"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E110" s="68"/>
-      <c r="F110" s="67"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="40"/>
-      <c r="B111" s="67"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E111" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="F111" s="67"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="40"/>
-      <c r="B112" s="67"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E112" s="69"/>
-      <c r="F112" s="67"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="40"/>
-      <c r="B113" s="67"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E113" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F113" s="67"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="40"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E114" s="68"/>
-      <c r="F114" s="67"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="40"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E115" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F115" s="67"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="40"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E116" s="68"/>
-      <c r="F116" s="67"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="40"/>
-      <c r="B117" s="67"/>
-      <c r="C117" s="40"/>
-      <c r="D117" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E117" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="F117" s="67"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="40"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E118" s="68"/>
-      <c r="F118" s="67"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="40"/>
-      <c r="B119" s="67"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E119" s="68"/>
-      <c r="F119" s="67"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="41"/>
-      <c r="B120" s="48"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E120" s="71"/>
-      <c r="F120" s="48"/>
+      <c r="B121" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D121" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E121" s="85"/>
+      <c r="F121" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="42"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E122" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="F122" s="42"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="42"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="E123" s="88"/>
+      <c r="F123" s="42"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="42"/>
+      <c r="B124" s="89"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F124" s="89"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="42"/>
+      <c r="B125" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D125" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E125" s="85"/>
+      <c r="F125" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="42"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E126" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="F126" s="42"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="42"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="E127" s="88"/>
+      <c r="F127" s="42"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="42"/>
+      <c r="B128" s="89"/>
+      <c r="C128" s="89"/>
+      <c r="D128" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="F128" s="89"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="42"/>
+      <c r="B129" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E129" s="85"/>
+      <c r="F129" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="42"/>
+      <c r="B130" s="42"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E130" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="F130" s="42"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="42"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="E131" s="88"/>
+      <c r="F131" s="42"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="92"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="F132" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="74">
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="E15:E16"/>
@@ -8186,42 +8641,52 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
+    <mergeCell ref="C75:C97"/>
+    <mergeCell ref="B98:B120"/>
+    <mergeCell ref="C98:C120"/>
+    <mergeCell ref="A121:A132"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A35:A120"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C74"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B75:B97"/>
-    <mergeCell ref="C75:C97"/>
-    <mergeCell ref="B98:B120"/>
-    <mergeCell ref="C98:C120"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B52:B74"/>
-    <mergeCell ref="C52:C74"/>
-    <mergeCell ref="A35:A120"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="B36:B43"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A13:A32"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A13:A32"/>
-    <mergeCell ref="F44:F51"/>
-    <mergeCell ref="F52:F74"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B52:B74"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B75:B97"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="B121:B124"/>
     <mergeCell ref="F75:F97"/>
     <mergeCell ref="F98:F120"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F121:F124"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="F129:F132"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="F44:F51"/>
+    <mergeCell ref="F52:F74"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -8251,1000 +8716,1036 @@
   </cols>
   <sheetData>
     <row r="1" ht="54.75" customHeight="1">
-      <c r="B1" s="80"/>
-      <c r="C1" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="82"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="95"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" ht="18.0" customHeight="1">
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="105"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="93" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+    </row>
+    <row r="5" ht="15.0" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="B9" s="93"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="97"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="113"/>
+      <c r="B11" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="115" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="113"/>
+      <c r="B12" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H12" s="122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="113"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H13" s="122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="113"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="123" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H14" s="122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="113"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H15" s="122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="113"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H16" s="122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="113"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H17" s="122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="113"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H18" s="129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="113"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H19" s="132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="113"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H20" s="122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="113"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="133" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="135" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="136">
+        <v>44183.0</v>
+      </c>
+      <c r="H21" s="137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="113"/>
+      <c r="B22" s="138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="139" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="136">
+        <v>44183.0</v>
+      </c>
+      <c r="H22" s="137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="113"/>
+      <c r="B23" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="123" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H23" s="122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="113"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H24" s="122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="113"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="121">
+        <v>44183.0</v>
+      </c>
+      <c r="H25" s="122" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="113"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="126" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="142" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="143" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="144">
+        <v>44183.0</v>
+      </c>
+      <c r="H26" s="129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="113"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="145" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="146" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="147">
+        <v>44183.0</v>
+      </c>
+      <c r="H27" s="132" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="113"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="151">
+        <v>44183.0</v>
+      </c>
+      <c r="H28" s="152" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="113"/>
+      <c r="B29" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-    </row>
-    <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="94" t="s">
+      <c r="C29" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="154" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-    </row>
-    <row r="9" ht="17.25" customHeight="1">
-      <c r="B9" s="80"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="100"/>
-      <c r="B11" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="103" t="s">
+      <c r="E29" s="155" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="156" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="157">
+        <v>44184.0</v>
+      </c>
+      <c r="H29" s="158" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="113"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="102" t="s">
+      <c r="E30" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="160" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="161">
+        <v>44184.0</v>
+      </c>
+      <c r="H30" s="162" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="100"/>
-      <c r="B12" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="107" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="113"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H12" s="109" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="100"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H13" s="109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="100"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H14" s="109" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="100"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H15" s="109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="100"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H16" s="109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="100"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H17" s="109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="100"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="113" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="115" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H18" s="116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="100"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="115" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H19" s="119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="100"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="115" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H20" s="109" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="100"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="122" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="123">
-        <v>44183.0</v>
-      </c>
-      <c r="H21" s="124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="100"/>
-      <c r="B22" s="125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="126" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="126" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="127" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="128" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="123">
-        <v>44183.0</v>
-      </c>
-      <c r="H22" s="124" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="100"/>
-      <c r="B23" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H23" s="109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="100"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="106" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H24" s="109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="108">
-        <v>44183.0</v>
-      </c>
-      <c r="H25" s="109" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="100"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="129" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="130" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="131">
-        <v>44183.0</v>
-      </c>
-      <c r="H26" s="116" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="100"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="117" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="132" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="134">
-        <v>44183.0</v>
-      </c>
-      <c r="H27" s="119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="100"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="135" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="127" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="136" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="123">
-        <v>44183.0</v>
-      </c>
-      <c r="H28" s="124" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="100"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="142"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="100"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="142"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="100"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="142"/>
+      <c r="E31" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="164" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="165">
+        <v>44184.0</v>
+      </c>
+      <c r="H31" s="166" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="100"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="142"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="172"/>
     </row>
     <row r="33">
-      <c r="A33" s="100"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="142"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="172"/>
     </row>
     <row r="34">
-      <c r="A34" s="100"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="142"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="172"/>
     </row>
     <row r="35">
-      <c r="A35" s="100"/>
-      <c r="B35" s="137"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="142"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="172"/>
     </row>
     <row r="36">
-      <c r="A36" s="100"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="142"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="172"/>
     </row>
     <row r="37">
-      <c r="A37" s="100"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="142"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="172"/>
     </row>
     <row r="38">
-      <c r="A38" s="100"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="142"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="167"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="172"/>
     </row>
     <row r="39">
-      <c r="A39" s="100"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="142"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="167"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="172"/>
     </row>
     <row r="40">
-      <c r="A40" s="100"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="142"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="167"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="169"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="172"/>
     </row>
     <row r="41">
-      <c r="A41" s="100"/>
-      <c r="B41" s="137"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="142"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="167"/>
+      <c r="C41" s="167"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="172"/>
     </row>
     <row r="42">
-      <c r="A42" s="100"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="142"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="172"/>
     </row>
     <row r="43">
-      <c r="A43" s="100"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="142"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="172"/>
     </row>
     <row r="44">
-      <c r="A44" s="100"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="142"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="172"/>
     </row>
     <row r="45">
-      <c r="A45" s="100"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="142"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="172"/>
     </row>
     <row r="46">
-      <c r="A46" s="100"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="142"/>
+      <c r="A46" s="113"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="169"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="172"/>
     </row>
     <row r="47">
-      <c r="A47" s="100"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="142"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="167"/>
+      <c r="C47" s="167"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="169"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="172"/>
     </row>
     <row r="48">
-      <c r="A48" s="100"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="142"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="169"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="172"/>
     </row>
     <row r="49">
-      <c r="A49" s="100"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="141"/>
-      <c r="H49" s="142"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="169"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="172"/>
     </row>
     <row r="50">
-      <c r="A50" s="100"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="142"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="172"/>
     </row>
     <row r="51">
-      <c r="A51" s="100"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="142"/>
+      <c r="A51" s="113"/>
+      <c r="B51" s="167"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="170"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="172"/>
     </row>
     <row r="52">
-      <c r="A52" s="100"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="142"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="167"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="172"/>
     </row>
     <row r="53">
-      <c r="A53" s="100"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="142"/>
+      <c r="A53" s="113"/>
+      <c r="B53" s="167"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="172"/>
     </row>
     <row r="54">
-      <c r="A54" s="100"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="142"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="167"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="171"/>
+      <c r="H54" s="172"/>
     </row>
     <row r="55">
-      <c r="A55" s="100"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="139"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="141"/>
-      <c r="H55" s="142"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="167"/>
+      <c r="C55" s="167"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="172"/>
     </row>
     <row r="56">
-      <c r="A56" s="100"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="139"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="142"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="167"/>
+      <c r="C56" s="167"/>
+      <c r="D56" s="168"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="170"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="172"/>
     </row>
     <row r="57">
-      <c r="A57" s="100"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="139"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="142"/>
+      <c r="A57" s="113"/>
+      <c r="B57" s="167"/>
+      <c r="C57" s="167"/>
+      <c r="D57" s="168"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="170"/>
+      <c r="G57" s="171"/>
+      <c r="H57" s="172"/>
     </row>
     <row r="58">
-      <c r="A58" s="100"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="141"/>
-      <c r="H58" s="142"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="167"/>
+      <c r="C58" s="167"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="169"/>
+      <c r="F58" s="170"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="172"/>
     </row>
     <row r="59">
-      <c r="A59" s="100"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="139"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="142"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="167"/>
+      <c r="C59" s="167"/>
+      <c r="D59" s="168"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="170"/>
+      <c r="G59" s="171"/>
+      <c r="H59" s="172"/>
     </row>
     <row r="60">
-      <c r="A60" s="100"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="141"/>
-      <c r="H60" s="142"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="167"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="168"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="170"/>
+      <c r="G60" s="171"/>
+      <c r="H60" s="172"/>
     </row>
     <row r="61">
-      <c r="A61" s="100"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="141"/>
-      <c r="H61" s="142"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="167"/>
+      <c r="C61" s="167"/>
+      <c r="D61" s="168"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="170"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="172"/>
     </row>
     <row r="62">
-      <c r="A62" s="100"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="142"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="170"/>
+      <c r="G62" s="171"/>
+      <c r="H62" s="172"/>
     </row>
     <row r="63">
-      <c r="A63" s="100"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="138"/>
-      <c r="E63" s="139"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="141"/>
-      <c r="H63" s="142"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="167"/>
+      <c r="C63" s="167"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="170"/>
+      <c r="G63" s="171"/>
+      <c r="H63" s="172"/>
     </row>
     <row r="64">
-      <c r="A64" s="100"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="138"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="141"/>
-      <c r="H64" s="142"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="167"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="168"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="170"/>
+      <c r="G64" s="171"/>
+      <c r="H64" s="172"/>
     </row>
     <row r="65">
-      <c r="A65" s="100"/>
-      <c r="B65" s="137"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="138"/>
-      <c r="E65" s="139"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="141"/>
-      <c r="H65" s="142"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="167"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="168"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="170"/>
+      <c r="G65" s="171"/>
+      <c r="H65" s="172"/>
     </row>
     <row r="66">
-      <c r="A66" s="100"/>
-      <c r="B66" s="137"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="138"/>
-      <c r="E66" s="139"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="141"/>
-      <c r="H66" s="142"/>
+      <c r="A66" s="113"/>
+      <c r="B66" s="167"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="168"/>
+      <c r="E66" s="169"/>
+      <c r="F66" s="170"/>
+      <c r="G66" s="171"/>
+      <c r="H66" s="172"/>
     </row>
     <row r="67">
-      <c r="A67" s="100"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="138"/>
-      <c r="E67" s="139"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="141"/>
-      <c r="H67" s="142"/>
+      <c r="A67" s="113"/>
+      <c r="B67" s="167"/>
+      <c r="C67" s="167"/>
+      <c r="D67" s="168"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="170"/>
+      <c r="G67" s="171"/>
+      <c r="H67" s="172"/>
     </row>
     <row r="68">
-      <c r="A68" s="100"/>
-      <c r="B68" s="137"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="139"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="141"/>
-      <c r="H68" s="142"/>
+      <c r="A68" s="113"/>
+      <c r="B68" s="167"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="169"/>
+      <c r="F68" s="170"/>
+      <c r="G68" s="171"/>
+      <c r="H68" s="172"/>
     </row>
     <row r="69">
-      <c r="A69" s="100"/>
-      <c r="B69" s="137"/>
-      <c r="C69" s="137"/>
-      <c r="D69" s="138"/>
-      <c r="E69" s="139"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="142"/>
+      <c r="A69" s="113"/>
+      <c r="B69" s="167"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="169"/>
+      <c r="F69" s="170"/>
+      <c r="G69" s="171"/>
+      <c r="H69" s="172"/>
     </row>
     <row r="70">
-      <c r="A70" s="100"/>
-      <c r="B70" s="137"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="138"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="141"/>
-      <c r="H70" s="142"/>
+      <c r="A70" s="113"/>
+      <c r="B70" s="167"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="168"/>
+      <c r="E70" s="169"/>
+      <c r="F70" s="170"/>
+      <c r="G70" s="171"/>
+      <c r="H70" s="172"/>
     </row>
     <row r="71">
-      <c r="A71" s="100"/>
-      <c r="B71" s="137"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="138"/>
-      <c r="E71" s="139"/>
-      <c r="F71" s="140"/>
-      <c r="G71" s="141"/>
-      <c r="H71" s="142"/>
+      <c r="A71" s="113"/>
+      <c r="B71" s="167"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="168"/>
+      <c r="E71" s="169"/>
+      <c r="F71" s="170"/>
+      <c r="G71" s="171"/>
+      <c r="H71" s="172"/>
     </row>
     <row r="72">
-      <c r="A72" s="100"/>
-      <c r="B72" s="137"/>
-      <c r="C72" s="137"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="139"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="141"/>
-      <c r="H72" s="142"/>
+      <c r="A72" s="113"/>
+      <c r="B72" s="167"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="168"/>
+      <c r="E72" s="169"/>
+      <c r="F72" s="170"/>
+      <c r="G72" s="171"/>
+      <c r="H72" s="172"/>
     </row>
     <row r="73">
-      <c r="A73" s="100"/>
-      <c r="B73" s="137"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="138"/>
-      <c r="E73" s="139"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="142"/>
+      <c r="A73" s="113"/>
+      <c r="B73" s="167"/>
+      <c r="C73" s="167"/>
+      <c r="D73" s="168"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="170"/>
+      <c r="G73" s="171"/>
+      <c r="H73" s="172"/>
     </row>
     <row r="74">
-      <c r="A74" s="100"/>
-      <c r="B74" s="137"/>
-      <c r="C74" s="137"/>
-      <c r="D74" s="138"/>
-      <c r="E74" s="139"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="142"/>
+      <c r="A74" s="113"/>
+      <c r="B74" s="167"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="168"/>
+      <c r="E74" s="169"/>
+      <c r="F74" s="170"/>
+      <c r="G74" s="171"/>
+      <c r="H74" s="172"/>
     </row>
     <row r="75">
-      <c r="A75" s="100"/>
-      <c r="B75" s="137"/>
-      <c r="C75" s="137"/>
-      <c r="D75" s="138"/>
-      <c r="E75" s="139"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="141"/>
-      <c r="H75" s="142"/>
+      <c r="A75" s="113"/>
+      <c r="B75" s="167"/>
+      <c r="C75" s="167"/>
+      <c r="D75" s="168"/>
+      <c r="E75" s="169"/>
+      <c r="F75" s="170"/>
+      <c r="G75" s="171"/>
+      <c r="H75" s="172"/>
     </row>
     <row r="76">
-      <c r="A76" s="100"/>
-      <c r="B76" s="137"/>
-      <c r="C76" s="137"/>
-      <c r="D76" s="138"/>
-      <c r="E76" s="139"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="141"/>
-      <c r="H76" s="142"/>
+      <c r="A76" s="113"/>
+      <c r="B76" s="167"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="168"/>
+      <c r="E76" s="169"/>
+      <c r="F76" s="170"/>
+      <c r="G76" s="171"/>
+      <c r="H76" s="172"/>
     </row>
     <row r="77">
-      <c r="A77" s="100"/>
-      <c r="B77" s="137"/>
-      <c r="C77" s="137"/>
-      <c r="D77" s="138"/>
-      <c r="E77" s="139"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="141"/>
-      <c r="H77" s="142"/>
+      <c r="A77" s="113"/>
+      <c r="B77" s="167"/>
+      <c r="C77" s="167"/>
+      <c r="D77" s="168"/>
+      <c r="E77" s="169"/>
+      <c r="F77" s="170"/>
+      <c r="G77" s="171"/>
+      <c r="H77" s="172"/>
     </row>
     <row r="78">
-      <c r="A78" s="100"/>
-      <c r="B78" s="137"/>
-      <c r="C78" s="137"/>
-      <c r="D78" s="138"/>
-      <c r="E78" s="139"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="141"/>
-      <c r="H78" s="142"/>
+      <c r="A78" s="113"/>
+      <c r="B78" s="167"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="168"/>
+      <c r="E78" s="169"/>
+      <c r="F78" s="170"/>
+      <c r="G78" s="171"/>
+      <c r="H78" s="172"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="C12:C21"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="C23:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
